--- a/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,5</t>
+          <t>3,81; 8,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,37</t>
+          <t>3,32; 7,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,35</t>
+          <t>6,06; 12,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,53</t>
+          <t>4,84; 11,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,36</t>
+          <t>4,54; 9,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,55</t>
+          <t>3,35; 8,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 9,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 8,65</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 14,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 14,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 10,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 9,1</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,9</t>
+          <t>3,1; 9,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,0</t>
+          <t>3,41; 9,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,55</t>
+          <t>6,14; 13,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,33</t>
+          <t>5,41; 15,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,04</t>
+          <t>4,68; 13,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 16,0</t>
+          <t>2,21; 11,04</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 11,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 10,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 16,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 18,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 15,45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 12,63</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,77</t>
+          <t>0,98; 9,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,21</t>
+          <t>-3,12; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,86</t>
+          <t>2,31; 11,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 11,03</t>
+          <t>0,86; 13,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 12,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 10,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 3,22</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 12,43</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 16,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,91</t>
+          <t>4,13; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,6</t>
+          <t>3,59; 6,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,98</t>
+          <t>6,81; 11,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,78</t>
+          <t>6,21; 11,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,17</t>
+          <t>5,03; 9,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,68</t>
+          <t>3,63; 7,81</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 8,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 7,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 12,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 13,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 10,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 8,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10,38%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.015331905484689</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.2577389647115</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.264778698620614</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.529316088990392</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6.582720560948641</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>5.472690728795104</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06563119463251148</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.05687051280979767</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1064569763324226</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.09606041515156934</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.07244784993547219</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.05902624932882981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 8,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 7,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 12,42</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 11,91</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 9,41</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 8,2</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 9,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 8,65</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 14,72</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>5,39; 14,06</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 10,63</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 9,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.566755485883315</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.868329085956374</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>6.219706705564739</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.949566019917976</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>4.538802666737738</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>3.323501493883613</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.03844943260654584</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.03042573174445412</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.07022095351902911</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.05385208695677654</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.04925737130992674</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.03497810872427015</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.716001284998123</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.464439668285311</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.0928520653885</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.29911083189824</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.406005000203892</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8.200131288594624</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.09744966741066149</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.08268945144235505</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1563185815894287</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1428478442626006</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.1062927124022654</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.09090945287387009</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,54</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,93</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,57</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,65%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10,78%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,03%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 9,47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 9,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 13,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 15,11</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 13,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 11,04</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 11,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 10,47</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 16,09</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 18,17</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 15,45</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 12,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.006228127948311</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.244865640191821</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.704357453326528</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.844998016774863</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>8.565946307586314</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>6.428932154926414</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.07809603000356041</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.06789683368731843</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.109852174266996</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.09929529167841718</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.09551122868345494</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.06992333419315652</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,01%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,7%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.458997171694052</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.505522466853824</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.322325767365452</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.331048907656696</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.681184657491169</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2.416906338447932</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.03858677385353232</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.03720585025516997</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.07024832527062708</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.05772447265799923</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.05100534771100643</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.0257611818556577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 9,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 3,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 11,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 13,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 10,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 3,22</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 12,43</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 16,39</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.15627520473321</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.709406233930062</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.83398578875253</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.92771522169464</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.16094818055463</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.19881630623397</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1295617346711169</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.109781037951206</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1643587868156906</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1798055800045854</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.1544535737560372</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.1316962560648732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,04</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>9,93%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.94086841529605</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1764787063004092</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.703117211098164</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.426871328006623</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.04133275177343312</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.001795274535359447</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.06073821919318929</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.06946088009437856</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 7,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 6,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 11,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 11,5</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 9,35</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 7,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 8,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 7,53</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 12,97</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 13,3</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 10,52</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 8,58</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.8394201568307409</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.084921592494258</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.276628228895951</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.076842209744062</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.008620346020409553</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.03115672493291884</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.02318247644834194</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.01133044248774985</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.217508756051446</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.537022173458499</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.94196894079412</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.20286883609737</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.1016280343751374</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.03660931885970344</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1228073779331436</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1664025842271587</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.154766888960362</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.014010612223096</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.94535964017189</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.379323352007095</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.03954737376844</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5.702900936214728</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.06738795958839865</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.05392601603776942</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1011968613213454</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.09376858157312959</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.0777171895416191</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.06163549628359394</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.142287804720818</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.477324175715133</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.90354899578062</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.257423939317299</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.027307419383058</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>3.689904089089572</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.04489300007080029</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.03704119580165733</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.07641979993093505</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.06869485548521372</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.05426116788018652</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.03927382816903535</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.423887198648556</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.869104083218579</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.44123594367743</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.65812540943126</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>9.349280770268273</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.88521867874909</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.09446145964511007</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.07518479226984055</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1340266537969766</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1342831406548253</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.1052279754679173</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.08756430006715386</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
